--- a/results/case2/data_case2_cut_off_recipe.xlsx
+++ b/results/case2/data_case2_cut_off_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00021782213689235824], ["'SUD manufacturing' (unit, GLO, None)", 0.01470091483822605], ["'SUD raw materials' (unit, GLO, None)", 0.002276159142919983], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236862982640774], ["'mixed heating grid' (megajoule, DK, None)", -0.00028915455355302906], ["'transport' (ton kilometer, GLO, None)", 1.235006013738268e-05], ["'eol SUD' (kilogram, GLO, None)", 5.2402687491274234e-05], ["'surgery use' (unit, DK, None)", 5.152698633488256e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143867625146387e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016529814539], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.646959240367663e-05], ["'MUD raw materials' (unit, GLO, None)", 4.330348003916117e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465185764781], ["'H200 SU' (unit, GLO, None)", 0.00011840808786126268], ["'autoclave' (unit, DK, None)", 0.00016466198235176629], ["'transport' (ton kilometer, GLO, None)", 5.051690966945882e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1965188106765968e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7532100034707894e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444473707535e-06], ["'scalpel' (unit, GLO, None)", 6.147135073640263e-05], ["'surgery use' (unit, DK, None)", 5.152698633488256e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0733746460756465], ["'SUD manufacturing' (unit, GLO, None)", 0.7431711598246324], ["'SUD raw materials' (unit, GLO, None)", 0.163927059925728], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.175274075048231], ["'mixed heating grid' (megajoule, DK, None)", -0.053298739844984955], ["'transport' (ton kilometer, GLO, None)", 0.008987454480350262], ["'eol SUD' (kilogram, GLO, None)", 0.42146179469600403], ["'surgery use' (unit, DK, None)", 0.01562895856438135], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0006606903140866798]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1822838747120243], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016439189749813014], ["'MUD raw materials' (unit, GLO, None)", 0.0008509907184866929], ["'mechanical disinfection' (unit, DK, None)", 0.10834019244415634], ["'H200 SU' (unit, GLO, None)", 0.09656341413087373], ["'autoclave' (unit, DK, None)", 0.04667465871375956], ["'transport' (ton kilometer, GLO, None)", 0.0036762446586632268], ["'mixed heating grid' (megajoule, DK, None)", -0.0022054968191323058], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00725282509683893], ["'eol MUD' (kilogram, GLO, None)", 0.01443406095415931], ["'scalpel' (unit, GLO, None)", 0.01251362667722402], ["'surgery use' (unit, DK, None)", 0.01562895856438135]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0020392996333575787], ["'SUD manufacturing' (unit, GLO, None)", 1.327090704000057], ["'SUD raw materials' (unit, GLO, None)", 0.01652985353507713], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512733970049018], ["'mixed heating grid' (megajoule, DK, None)", -0.002349076010314053], ["'transport' (ton kilometer, GLO, None)", 0.00022666644856415843], ["'eol SUD' (kilogram, GLO, None)", 0.03559246258986067], ["'surgery use' (unit, DK, None)", 0.0032808504248851], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085976465474e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04125832712283758], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004144775825522763], ["'MUD raw materials' (unit, GLO, None)", 0.0008178324579110405], ["'mechanical disinfection' (unit, DK, None)", 0.022144256184637032], ["'H200 SU' (unit, GLO, None)", 0.0037429133787624477], ["'autoclave' (unit, DK, None)", 0.009351888527110407], ["'transport' (ton kilometer, GLO, None)", 9.271605465752251e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.720454336661274e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004350159643026582], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319261792209], ["'scalpel' (unit, GLO, None)", 0.00272009532821702], ["'surgery use' (unit, DK, None)", 0.0032808504248851]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0027163031520562883], ["'SUD manufacturing' (unit, GLO, None)", 1.706688601875089], ["'SUD raw materials' (unit, GLO, None)", 0.0226272780072804], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710100842145205], ["'mixed heating grid' (megajoule, DK, None)", -0.003207631425477336], ["'transport' (ton kilometer, GLO, None)", 0.0004019710422247298], ["'eol SUD' (kilogram, GLO, None)", 0.048904706998283906], ["'surgery use' (unit, DK, None)", 0.004121580270126511], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595764137268e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0520185742089067], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005548095634692686], ["'MUD raw materials' (unit, GLO, None)", 0.001299277202095843], ["'mechanical disinfection' (unit, DK, None)", 0.027851426560959947], ["'H200 SU' (unit, GLO, None)", 0.005269587022803408], ["'autoclave' (unit, DK, None)", 0.011776209607446247], ["'transport' (ton kilometer, GLO, None)", 0.00016442296315901474], ["'mixed heating grid' (megajoule, DK, None)", -0.00013273148532994333], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005673227112494575], ["'eol MUD' (kilogram, GLO, None)", 0.001036558121181189], ["'scalpel' (unit, GLO, None)", 0.003632189934305927], ["'surgery use' (unit, DK, None)", 0.004121580270126511]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.20135749110815482], ["'SUD manufacturing' (unit, GLO, None)", 106.6649559670301], ["'SUD raw materials' (unit, GLO, None)", 4.073295799447124], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252202679997212], ["'mixed heating grid' (megajoule, DK, None)", -0.4154247944916324], ["'transport' (ton kilometer, GLO, None)", 0.1746232476423607], ["'eol SUD' (kilogram, GLO, None)", 0.9565836089475312], ["'surgery use' (unit, DK, None)", 0.167515970349165], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0021081842041114143]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.31940676891975], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038491616697376115], ["'MUD raw materials' (unit, GLO, None)", 0.01129818850592537], ["'mechanical disinfection' (unit, DK, None)", 1.1381641796029913], ["'H200 SU' (unit, GLO, None)", 0.22836479001628315], ["'autoclave' (unit, DK, None)", 0.4872165784947924], ["'transport' (ton kilometer, GLO, None)", 0.07142820949215375], ["'mixed heating grid' (megajoule, DK, None)", -0.01719023874682089], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.021733566359249737], ["'eol MUD' (kilogram, GLO, None)", 0.03449744298078045], ["'scalpel' (unit, GLO, None)", 0.4449601181752865], ["'surgery use' (unit, DK, None)", 0.167515970349165]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027365808588659], ["'SUD manufacturing' (unit, GLO, None)", 0.2028813174913253], ["'SUD raw materials' (unit, GLO, None)", 0.06828633352966192], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04601611900964709], ["'mixed heating grid' (megajoule, DK, None)", -0.015729582761373123], ["'transport' (ton kilometer, GLO, None)", 0.0028425462771163425], ["'eol SUD' (kilogram, GLO, None)", 0.003062055062478179], ["'surgery use' (unit, DK, None)", 0.004035239639139889], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983879280687]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04712924022624433], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00973454445042841], ["'MUD raw materials' (unit, GLO, None)", 0.0002195650391505464], ["'mechanical disinfection' (unit, DK, None)", 0.02804394488108355], ["'H200 SU' (unit, GLO, None)", 0.03302265962697073], ["'autoclave' (unit, DK, None)", 0.012012015208729824], ["'transport' (ton kilometer, GLO, None)", 0.0011627202775935214], ["'mixed heating grid' (megajoule, DK, None)", -0.0006508886485381137], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.001904142770232601], ["'eol MUD' (kilogram, GLO, None)", 0.000100830797850247], ["'scalpel' (unit, GLO, None)", 0.0029973374320459], ["'surgery use' (unit, DK, None)", 0.004035239639139889]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0245812969138572e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.00189176598764761], ["'SUD raw materials' (unit, GLO, None)", 4.842529430966246e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077165053593], ["'mixed heating grid' (megajoule, DK, None)", -1.4973389027419486e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704971476682e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059439394382e-06], ["'surgery use' (unit, DK, None)", 1.319445446228906e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765087829084e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001769691979822687], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.064800178938316e-06], ["'MUD raw materials' (unit, GLO, None)", 1.290391706806414e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453291570607], ["'H200 SU' (unit, GLO, None)", 5.363135803763353e-06], ["'autoclave' (unit, DK, None)", 4.5683733237104005e-05], ["'transport' (ton kilometer, GLO, None)", 2.558844891826131e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.195974232721293e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.689769278127999e-06], ["'eol MUD' (kilogram, GLO, None)", 2.126323702512078e-07], ["'scalpel' (unit, GLO, None)", 6.328077089128554e-06], ["'surgery use' (unit, DK, None)", 1.319445446228906e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.70559815718813e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.553644766869255e-05], ["'SUD raw materials' (unit, GLO, None)", 9.173054771622815e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.99545553825863e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.782049651450406e-05], ["'transport' (ton kilometer, GLO, None)", 2.502036385822087e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1399510896166626e-06], ["'surgery use' (unit, DK, None)", 8.967658083029249e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.913379383337588e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.346028898659113e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.75474193517541e-07], ["'MUD raw materials' (unit, GLO, None)", 5.317155794965918e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619346916216e-05], ["'H200 SU' (unit, GLO, None)", -2.813750260015295e-06], ["'autoclave' (unit, DK, None)", 3.159759805130691e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374949291559e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.1512095172958102e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.136110303949457e-07], ["'eol MUD' (kilogram, GLO, None)", 5.680781864007898e-08], ["'scalpel' (unit, GLO, None)", 7.587835168084368e-07], ["'surgery use' (unit, DK, None)", 8.967658083029249e-07]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003139847039601231], ["'SUD manufacturing' (unit, GLO, None)", 0.1574755165801782], ["'SUD raw materials' (unit, GLO, None)", 0.02773514881369562], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984007847482967], ["'mixed heating grid' (megajoule, DK, None)", -0.00249129840727543], ["'transport' (ton kilometer, GLO, None)", 0.0004539499586658091], ["'eol SUD' (kilogram, GLO, None)", 0.005085285521624503], ["'surgery use' (unit, DK, None)", 0.001386874411949662], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.5206353406446666e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01724853620366054], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006686463124838742], ["'MUD raw materials' (unit, GLO, None)", 0.0003469885786237893], ["'mechanical disinfection' (unit, DK, None)", 0.009875990320338866], ["'H200 SU' (unit, GLO, None)", 0.0016140099127179915], ["'autoclave' (unit, DK, None)", 0.004362733829379801], ["'transport' (ton kilometer, GLO, None)", 0.00018568451328395877], ["'mixed heating grid' (megajoule, DK, None)", -0.00010308969271573386], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005786569579255107], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086494866443], ["'scalpel' (unit, GLO, None)", 0.01590330354202315], ["'surgery use' (unit, DK, None)", 0.001386874411949662]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05471889616410587], ["'SUD manufacturing' (unit, GLO, None)", 19.95067496789606], ["'SUD raw materials' (unit, GLO, None)", 0.3015071898811865], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.24791571444476967], ["'mixed heating grid' (megajoule, DK, None)", -0.10057223976268921], ["'transport' (ton kilometer, GLO, None)", 0.007119574386415489], ["'eol SUD' (kilogram, GLO, None)", 0.5711743577763176], ["'surgery use' (unit, DK, None)", 0.04098247135615341], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0015991761095124919]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937249952882], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00994741542839513], ["'MUD raw materials' (unit, GLO, None)", 0.01382368017867963], ["'mechanical disinfection' (unit, DK, None)", 0.2969541452291151], ["'H200 SU' (unit, GLO, None)", 0.043667049217811726], ["'autoclave' (unit, DK, None)", 0.13246586142073255], ["'transport' (ton kilometer, GLO, None)", 0.002912203601947525], ["'mixed heating grid' (megajoule, DK, None)", -0.004161669779337074], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010258729450610368], ["'eol MUD' (kilogram, GLO, None)", 0.009928005669166304], ["'scalpel' (unit, GLO, None)", 0.0416252152888077], ["'surgery use' (unit, DK, None)", 0.04098247135615341]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005327375410835686], ["'SUD manufacturing' (unit, GLO, None)", 0.09955149233331534], ["'SUD raw materials' (unit, GLO, None)", 0.009418586935991517], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05322707357452689], ["'mixed heating grid' (megajoule, DK, None)", -0.002184981263870176], ["'transport' (ton kilometer, GLO, None)", 0.0001457106954581674], ["'eol SUD' (kilogram, GLO, None)", 0.0004144967247292375], ["'surgery use' (unit, DK, None)", 0.004494110594298383], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.949122311788688e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05102670418937061], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010415609310072426], ["'MUD raw materials' (unit, GLO, None)", 5.155661524279493e-05], ["'mechanical disinfection' (unit, DK, None)", 0.030903936550288936], ["'H200 SU' (unit, GLO, None)", 0.00010629524543614008], ["'autoclave' (unit, DK, None)", 0.012847783036869925], ["'transport' (ton kilometer, GLO, None)", 5.960176678049954e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.041431826240053e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022025314065779013], ["'eol MUD' (kilogram, GLO, None)", 1.3631973287710138e-05], ["'scalpel' (unit, GLO, None)", 0.0007996895094933108], ["'surgery use' (unit, DK, None)", 0.004494110594298383]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01484085342345367], ["'SUD manufacturing' (unit, GLO, None)", 0.05491246633753183], ["'SUD raw materials' (unit, GLO, None)", 0.002912706071334986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03657870992805874], ["'mixed heating grid' (megajoule, DK, None)", -0.057949463652482665], ["'transport' (ton kilometer, GLO, None)", 0.0003420243435444537], ["'eol SUD' (kilogram, GLO, None)", 0.00017033261217802356], ["'surgery use' (unit, DK, None)", 0.003112725621210491], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4404057683443073e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03440791975045705], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004733485188639356], ["'MUD raw materials' (unit, GLO, None)", 4.302014332801961e-05], ["'mechanical disinfection' (unit, DK, None)", 0.020776652824549123], ["'H200 SU' (unit, GLO, None)", -0.009689646221640648], ["'autoclave' (unit, DK, None)", 0.008666377622253547], ["'transport' (ton kilometer, GLO, None)", 0.0001399022569557528], ["'mixed heating grid' (megajoule, DK, None)", -0.0023979433308872022], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0015136236508634388], ["'eol MUD' (kilogram, GLO, None)", 4.594156044902778e-06], ["'scalpel' (unit, GLO, None)", 0.0004297653602343779], ["'surgery use' (unit, DK, None)", 0.003112725621210491]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.013578088361834904], ["'SUD manufacturing' (unit, GLO, None)", 0.06851265260721649], ["'SUD raw materials' (unit, GLO, None)", 0.009177714644623077], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631167670808963], ["'mixed heating grid' (megajoule, DK, None)", -0.0005167273984408966], ["'transport' (ton kilometer, GLO, None)", 0.00018185415166023633], ["'eol SUD' (kilogram, GLO, None)", 0.000530295366984478], ["'surgery use' (unit, DK, None)", 0.0002282867198473158], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.374625627919678e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839350731312], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00012973719529731843], ["'MUD raw materials' (unit, GLO, None)", 9.835057022315607e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141338442524], ["'H200 SU' (unit, GLO, None)", 0.0004678323508953615], ["'autoclave' (unit, DK, None)", 0.0010036219526607022], ["'transport' (ton kilometer, GLO, None)", 7.438595156819326e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.1382130927193793e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.295760958044152e-05], ["'eol MUD' (kilogram, GLO, None)", 1.701533766861292e-05], ["'scalpel' (unit, GLO, None)", 0.001242963909845834], ["'surgery use' (unit, DK, None)", 0.0002282867198473158]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.21005524209501e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.740746332116441e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910470008898e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.7583351178760984e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.2866732754531472e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865240572999e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463174783854e-08], ["'surgery use' (unit, DK, None)", 1.517327570306732e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798937055163e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.955897124840315e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.9847374999150653e-09], ["'MUD raw materials' (unit, GLO, None)", 2.490863570163239e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993179720846e-07], ["'H200 SU' (unit, GLO, None)", -1.2628385665330663e-08], ["'autoclave' (unit, DK, None)", 5.1885186424150455e-08], ["'transport' (ton kilometer, GLO, None)", 1.67783438727638e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.3242418573644274e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.2759745376352615e-09], ["'eol MUD' (kilogram, GLO, None)", 2.126424543350023e-09], ["'scalpel' (unit, GLO, None)", 3.518890405130061e-09], ["'surgery use' (unit, DK, None)", 1.517327570306732e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.88381022497612e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.00509932867966507], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774464761694], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001429322247887869], ["'mixed heating grid' (megajoule, DK, None)", -0.00012611654854268974], ["'transport' (ton kilometer, GLO, None)", 6.39755098984193e-06], ["'eol SUD' (kilogram, GLO, None)", 1.973544714277595e-05], ["'surgery use' (unit, DK, None)", 1.756857686280083e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4424672327503807e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002307194041128162], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0680100568391023e-05], ["'MUD raw materials' (unit, GLO, None)", 2.146506548835438e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00012492958800380718], ["'H200 SU' (unit, GLO, None)", 5.21009320236952e-05], ["'autoclave' (unit, DK, None)", 5.696629466295253e-05], ["'transport' (ton kilometer, GLO, None)", 2.616865844088864e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.218690863232843e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.9145223091884735e-06], ["'eol MUD' (kilogram, GLO, None)", 6.128113416385161e-07], ["'scalpel' (unit, GLO, None)", 4.224294787514784e-05], ["'surgery use' (unit, DK, None)", 1.756857686280083e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00019006654072385417], ["'SUD manufacturing' (unit, GLO, None)", 0.003484290355487674], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391393307432], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003439629987217158], ["'mixed heating grid' (megajoule, DK, None)", -0.00023098359701242133], ["'transport' (ton kilometer, GLO, None)", 1.4276196163517521e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554151933659471e-05], ["'surgery use' (unit, DK, None)", 3.243214837111015e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995979718770286e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000389389650451775], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009464312913195e-05], ["'MUD raw materials' (unit, GLO, None)", 4.589231041676611e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566331814974], ["'H200 SU' (unit, GLO, None)", 0.00010152111769573133], ["'autoclave' (unit, DK, None)", 9.860417208934461e-05], ["'transport' (ton kilometer, GLO, None)", 5.8395611356814745e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.55807942109475e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4233157235754108e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9017540675663756e-06], ["'scalpel' (unit, GLO, None)", 3.261600117310153e-05], ["'surgery use' (unit, DK, None)", 3.243214837111015e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002055204161565934], ["'SUD manufacturing' (unit, GLO, None)", 0.003572382083267161], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165195894165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003517157130800526], ["'mixed heating grid' (megajoule, DK, None)", -0.00023820097661902666], ["'transport' (ton kilometer, GLO, None)", 1.61607037831859e-05], ["'eol SUD' (kilogram, GLO, None)", 9.703561266657535e-05], ["'surgery use' (unit, DK, None)", 3.321219470037428e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.970985171185968e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0003990601667814314], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3722210200182244e-05], ["'MUD raw materials' (unit, GLO, None)", 4.701156859039238e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023227077413214177], ["'H200 SU' (unit, GLO, None)", 0.000108720668034066], ["'autoclave' (unit, DK, None)", 0.00010107474629383285], ["'transport' (ton kilometer, GLO, None)", 6.61040354563892e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.856733907319648e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4553963842500117e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9495755780650896e-06], ["'scalpel' (unit, GLO, None)", 3.406489095235073e-05], ["'surgery use' (unit, DK, None)", 3.321219470037428e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013520656462286185], ["'SUD manufacturing' (unit, GLO, None)", 0.010657660751221], ["'SUD raw materials' (unit, GLO, None)", 0.004277360176548169], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029393418923990187], ["'mixed heating grid' (megajoule, DK, None)", -0.0009129819374866987], ["'transport' (ton kilometer, GLO, None)", 1.4551059906279053e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00041960729023745994], ["'surgery use' (unit, DK, None)", 0.0002611502835959214], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.213211320617439e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288208642336], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002485313240541452], ["'MUD raw materials' (unit, GLO, None)", 6.794295895120419e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00183442342624201], ["'H200 SU' (unit, GLO, None)", 0.000256378637259628], ["'autoclave' (unit, DK, None)", 0.0008555599293446275], ["'transport' (ton kilometer, GLO, None)", 5.951991898852125e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.777910631486773e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00012162969703029565], ["'eol MUD' (kilogram, GLO, None)", 1.2150595060985034e-05], ["'scalpel' (unit, GLO, None)", 9.636116606757769e-05], ["'surgery use' (unit, DK, None)", 0.0002611502835959214]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2738022810425627e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.728937520102288e-09], ["'SUD raw materials' (unit, GLO, None)", 1.115930721979618e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0572105083250042e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.721313893494303e-10], ["'transport' (ton kilometer, GLO, None)", 3.551887812062903e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206447444919e-09], ["'surgery use' (unit, DK, None)", 1.000313282990573e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307202527822053e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.188712155254122e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.924365104034966e-11], ["'MUD raw materials' (unit, GLO, None)", 5.985202005926093e-12], ["'mechanical disinfection' (unit, DK, None)", 6.930425635576019e-10], ["'H200 SU' (unit, GLO, None)", 2.329597693649439e-10], ["'autoclave' (unit, DK, None)", 2.994282796454402e-10], ["'transport' (ton kilometer, GLO, None)", 1.4528706238029676e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.195072394047625e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.374727355036083e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2331881985196554e-11], ["'scalpel' (unit, GLO, None)", 6.786924197705596e-11], ["'surgery use' (unit, DK, None)", 1.000313282990573e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5633125797194337e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.991574874962604e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479444382542e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.62799545390546e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.6228197138648588e-07], ["'transport' (ton kilometer, GLO, None)", 1.554059642655423e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740759802137e-07], ["'surgery use' (unit, DK, None)", 4.014411372809707e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.015388600562536e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.094927265619302e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.333577826515276e-08], ["'MUD raw materials' (unit, GLO, None)", 6.465426492965964e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187355992536e-07], ["'H200 SU' (unit, GLO, None)", 1.3831045662702605e-07], ["'autoclave' (unit, DK, None)", 1.259141064910272e-07], ["'transport' (ton kilometer, GLO, None)", 6.356753709347774e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.715212643607962e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5012611803578104e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6545918455175166e-08], ["'scalpel' (unit, GLO, None)", 1.007069809614628e-07], ["'surgery use' (unit, DK, None)", 4.014411372809707e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01803642283190389], ["'SUD manufacturing' (unit, GLO, None)", 0.06463772710118554], ["'SUD raw materials' (unit, GLO, None)", 0.02633937972226272], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678826901060767], ["'mixed heating grid' (megajoule, DK, None)", -0.00501552449159032], ["'transport' (ton kilometer, GLO, None)", 0.001248216334770841], ["'eol SUD' (kilogram, GLO, None)", 0.001237785753094918], ["'surgery use' (unit, DK, None)", 0.0007925119100708976], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.086526721831439e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875770379725], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036589640019483037], ["'MUD raw materials' (unit, GLO, None)", 8.63549255009665e-05], ["'mechanical disinfection' (unit, DK, None)", 0.00568189023086065], ["'H200 SU' (unit, GLO, None)", 0.013148433773017972], ["'autoclave' (unit, DK, None)", 0.002519762196635783], ["'transport' (ton kilometer, GLO, None)", 0.0005105726703362017], ["'mixed heating grid' (megajoule, DK, None)", -0.00020754192959636093], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0003591290585433882], ["'eol MUD' (kilogram, GLO, None)", 4.080430265091739e-05], ["'scalpel' (unit, GLO, None)", 0.000973215905846965], ["'surgery use' (unit, DK, None)", 0.0007925119100708976]]</t>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00021760375505564095], ["'SUD manufacturing' (unit, GLO, None)", 0.014700914834264086], ["'SUD raw materials' (unit, GLO, None)", 0.0022761591426409583], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004236862983564785], ["'mixed heating grid' (megajoule, DK, None)", -0.00028915455095343925], ["'transport' (ton kilometer, GLO, None)", 1.235006013762207e-05], ["'eol SUD' (kilogram, GLO, None)", 5.240268710283125e-05], ["'surgery use' (unit, DK, None)", 5.152698632658018e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8143867434135867e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006720016502318195], ["'packgaging materials' (kilogram, GLO, None)", 1.6238225679492915e-07], ["'MUD raw materials' (unit, GLO, None)", 4.330347993029695e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003631465157305388], ["'H200 SU' (unit, GLO, None)", 0.00011840808829757378], ["'autoclave' (unit, DK, None)", 0.000164661983316265], ["'transport' (ton kilometer, GLO, None)", 5.051690967043802e-06], ["'mixed heating grid' (megajoule, DK, None)", -1.1965187999195187e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7532100038531445e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6241444446221039e-06], ["'scalpel' (unit, GLO, None)", 6.147135073696899e-05], ["'surgery use' (unit, DK, None)", 5.152698632658018e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.07330108220146357], ["'SUD manufacturing' (unit, GLO, None)", 0.743171159477789], ["'SUD raw materials' (unit, GLO, None)", 0.16392706008574598], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17527407508856366], ["'mixed heating grid' (megajoule, DK, None)", -0.05329873954592815], ["'transport' (ton kilometer, GLO, None)", 0.008987454476951547], ["'eol SUD' (kilogram, GLO, None)", 0.42146179463133104], ["'surgery use' (unit, DK, None)", 0.015628958568536955], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0006606903140204337]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.18228387451064837], ["'packgaging materials' (kilogram, GLO, None)", 5.469940144342059e-05], ["'MUD raw materials' (unit, GLO, None)", 0.000850990717232358], ["'mechanical disinfection' (unit, DK, None)", 0.10834019221966468], ["'H200 SU' (unit, GLO, None)", 0.09656341418422697], ["'autoclave' (unit, DK, None)", 0.046674658848099786], ["'transport' (ton kilometer, GLO, None)", 0.0036762446572730094], ["'mixed heating grid' (megajoule, DK, None)", -0.002205496806757363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007252825098507893], ["'eol MUD' (kilogram, GLO, None)", 0.014434060952756594], ["'scalpel' (unit, GLO, None)", 0.012513626671549715], ["'surgery use' (unit, DK, None)", 0.015628958568536955]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.002037255243178626], ["'SUD manufacturing' (unit, GLO, None)", 1.3270907035947106], ["'SUD raw materials' (unit, GLO, None)", 0.016529853429615174], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010512734000131151], ["'mixed heating grid' (megajoule, DK, None)", -0.002349075863187062], ["'transport' (ton kilometer, GLO, None)", 0.00022666644904391415], ["'eol SUD' (kilogram, GLO, None)", 0.035592462574428586], ["'surgery use' (unit, DK, None)", 0.0032808504248807145], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.150085804281859e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.041258326960699504], ["'packgaging materials' (kilogram, GLO, None)", 1.520259170022405e-06], ["'MUD raw materials' (unit, GLO, None)", 0.0008178324572446282], ["'mechanical disinfection' (unit, DK, None)", 0.022144256014562977], ["'H200 SU' (unit, GLO, None)", 0.0037429134009126733], ["'autoclave' (unit, DK, None)", 0.009351888589091467], ["'transport' (ton kilometer, GLO, None)", 9.271605485376264e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.720453727851176e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000435015965547454], ["'eol MUD' (kilogram, GLO, None)", 0.0007272319263788318], ["'scalpel' (unit, GLO, None)", 0.0027200953288260654], ["'surgery use' (unit, DK, None)", 0.0032808504248807145]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0027135800601116532], ["'SUD manufacturing' (unit, GLO, None)", 1.7066886013565237], ["'SUD raw materials' (unit, GLO, None)", 0.022627277873674415], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013710100880766843], ["'mixed heating grid' (megajoule, DK, None)", -0.003207631236160465], ["'transport' (ton kilometer, GLO, None)", 0.00040197104280551986], ["'eol SUD' (kilogram, GLO, None)", 0.04890470697810984], ["'surgery use' (unit, DK, None)", 0.004121580270228477], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.155595544210037e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.052018574002104016], ["'packgaging materials' (kilogram, GLO, None)", 2.024952437249897e-06], ["'MUD raw materials' (unit, GLO, None)", 0.0012992772012362561], ["'mechanical disinfection' (unit, DK, None)", 0.027851426342461346], ["'H200 SU' (unit, GLO, None)", 0.0052695870511477215], ["'autoclave' (unit, DK, None)", 0.011776209687619926], ["'transport' (ton kilometer, GLO, None)", 0.00016442296339658216], ["'mixed heating grid' (megajoule, DK, None)", -0.0001327314774960291], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005673227128476173], ["'eol MUD' (kilogram, GLO, None)", 0.0010365581214233448], ["'scalpel' (unit, GLO, None)", 0.0036321899350348413], ["'surgery use' (unit, DK, None)", 0.004121580270228477]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.2011556291470415], ["'SUD manufacturing' (unit, GLO, None)", 106.6649559267866], ["'SUD raw materials' (unit, GLO, None)", 4.073295788029245], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.5252202722305361], ["'mixed heating grid' (megajoule, DK, None)", -0.41542478109118314], ["'transport' (ton kilometer, GLO, None)", 0.17462324767056414], ["'eol SUD' (kilogram, GLO, None)", 0.9565836076681371], ["'surgery use' (unit, DK, None)", 0.16751597042146726], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0021081840432306768]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.3194067553004873], ["'packgaging materials' (kilogram, GLO, None)", 0.00015010818641226234], ["'MUD raw materials' (unit, GLO, None)", 0.011298188442793976], ["'mechanical disinfection' (unit, DK, None)", 1.1381641650196888], ["'H200 SU' (unit, GLO, None)", 0.22836479180725472], ["'autoclave' (unit, DK, None)", 0.4872165846978289], ["'transport' (ton kilometer, GLO, None)", 0.07142820950369014], ["'mixed heating grid' (megajoule, DK, None)", -0.01719023819231157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.02173356653432047], ["'eol MUD' (kilogram, GLO, None)", 0.03449744300375862], ["'scalpel' (unit, GLO, None)", 0.44496011823185266], ["'surgery use' (unit, DK, None)", 0.16751597042146726]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.04023328045560995], ["'SUD manufacturing' (unit, GLO, None)", 0.2028813173957399], ["'SUD raw materials' (unit, GLO, None)", 0.06828633357561087], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04601611901117393], ["'mixed heating grid' (megajoule, DK, None)", -0.015729582697486665], ["'transport' (ton kilometer, GLO, None)", 0.0028425462762259705], ["'eol SUD' (kilogram, GLO, None)", 0.0030620550476244345], ["'surgery use' (unit, DK, None)", 0.004035239640424262], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00016535983870503385]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.047129240179833984], ["'packgaging materials' (kilogram, GLO, None)", 3.0023245127248544e-05], ["'MUD raw materials' (unit, GLO, None)", 0.00021956503883163736], ["'mechanical disinfection' (unit, DK, None)", 0.028043944825839603], ["'H200 SU' (unit, GLO, None)", 0.03302265963538676], ["'autoclave' (unit, DK, None)", 0.01201201524074753], ["'transport' (ton kilometer, GLO, None)", 0.0011627202772293219], ["'mixed heating grid' (megajoule, DK, None)", -0.0006508886458944981], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019041427702957817], ["'eol MUD' (kilogram, GLO, None)", 0.00010083079753480821], ["'scalpel' (unit, GLO, None)", 0.002997337430376742], ["'surgery use' (unit, DK, None)", 0.004035239640424262]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.022551512093323e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.0018917659870554507], ["'SUD raw materials' (unit, GLO, None)", 4.842529410946194e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00013750077176227573], ["'mixed heating grid' (megajoule, DK, None)", -1.4973388800307234e-05], ["'transport' (ton kilometer, GLO, None)", 6.255704946168473e-07], ["'eol SUD' (kilogram, GLO, None)", 7.206059404104059e-06], ["'surgery use' (unit, DK, None)", 1.319445446814301e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.940765068422869e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00017696919784208746], ["'packgaging materials' (kilogram, GLO, None)", 1.5092868178388377e-08], ["'MUD raw materials' (unit, GLO, None)", 1.290391705635863e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010024453273394326], ["'H200 SU' (unit, GLO, None)", 5.363135835448554e-06], ["'autoclave' (unit, DK, None)", 4.568373337675903e-05], ["'transport' (ton kilometer, GLO, None)", 2.558844881474016e-07], ["'mixed heating grid' (megajoule, DK, None)", -6.195974138742457e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.689769282751781e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1263237002964932e-07], ["'scalpel' (unit, GLO, None)", 6.328077088198639e-06], ["'surgery use' (unit, DK, None)", 1.319445446814301e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 5.699877835902551e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.5536447657646126e-05], ["'SUD raw materials' (unit, GLO, None)", 9.17305477118551e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.995455542758988e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.7820496500388127e-05], ["'transport' (ton kilometer, GLO, None)", 2.5020363839219406e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1399510861395386e-06], ["'surgery use' (unit, DK, None)", 8.967658085155061e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.913379383292401e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.34602889781687e-05], ["'packgaging materials' (kilogram, GLO, None)", 4.253414773162297e-09], ["'MUD raw materials' (unit, GLO, None)", 5.317155789187223e-08], ["'mechanical disinfection' (unit, DK, None)", 4.418619345805657e-05], ["'H200 SU' (unit, GLO, None)", -2.813750257177941e-06], ["'autoclave' (unit, DK, None)", 3.159759805911688e-05], ["'transport' (ton kilometer, GLO, None)", 1.0234374941519167e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.1512095167116941e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.1361103058117015e-07], ["'eol MUD' (kilogram, GLO, None)", 5.680781856013503e-08], ["'scalpel' (unit, GLO, None)", 7.587835169734185e-07], ["'surgery use' (unit, DK, None)", 8.967658085155061e-07]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.003136699178015204], ["'SUD manufacturing' (unit, GLO, None)", 0.15747551617862293], ["'SUD raw materials' (unit, GLO, None)", 0.0277351488313713], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.013984007917978675], ["'mixed heating grid' (megajoule, DK, None)", -0.002491298294934329], ["'transport' (ton kilometer, GLO, None)", 0.0004539499559154492], ["'eol SUD' (kilogram, GLO, None)", 0.005085285487060468], ["'surgery use' (unit, DK, None)", 0.0013868744125633868], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.520635388528734e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.017248536183156513], ["'packgaging materials' (kilogram, GLO, None)", 2.340696240663078e-06], ["'MUD raw materials' (unit, GLO, None)", 0.00034698857798517985], ["'mechanical disinfection' (unit, DK, None)", 0.009875990264186596], ["'H200 SU' (unit, GLO, None)", 0.0016140099278116801], ["'autoclave' (unit, DK, None)", 0.004362733895890484], ["'transport' (ton kilometer, GLO, None)", 0.00018568451215894658], ["'mixed heating grid' (megajoule, DK, None)", -0.00010308968806706971], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005786569608426166], ["'eol MUD' (kilogram, GLO, None)", 0.00014168086395907587], ["'scalpel' (unit, GLO, None)", 0.015903303537025307], ["'surgery use' (unit, DK, None)", 0.0013868744125633868]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.05466403858109033], ["'SUD manufacturing' (unit, GLO, None)", 19.950674962077958], ["'SUD raw materials' (unit, GLO, None)", 0.30150718844626107], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.2479157149254523], ["'mixed heating grid' (megajoule, DK, None)", -0.10057223755100209], ["'transport' (ton kilometer, GLO, None)", 0.007119574392052448], ["'eol SUD' (kilogram, GLO, None)", 0.5711743575255742], ["'surgery use' (unit, DK, None)", 0.040982471363395875], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0015991760830507261]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.5708937226279801], ["'packgaging materials' (kilogram, GLO, None)", 4.079189694154323e-05], ["'MUD raw materials' (unit, GLO, None)", 0.013823680168387538], ["'mechanical disinfection' (unit, DK, None)", 0.2969541427087661], ["'H200 SU' (unit, GLO, None)", 0.04366704953681534], ["'autoclave' (unit, DK, None)", 0.1324658623901483], ["'transport' (ton kilometer, GLO, None)", 0.0029122036042532775], ["'mixed heating grid' (megajoule, DK, None)", -0.004161669687817669], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010258729470500971], ["'eol MUD' (kilogram, GLO, None)", 0.009928005671549207], ["'scalpel' (unit, GLO, None)", 0.041625215297520765], ["'surgery use' (unit, DK, None)", 0.040982471363395875]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.0053220342782540914], ["'SUD manufacturing' (unit, GLO, None)", 0.09955149215540984], ["'SUD raw materials' (unit, GLO, None)", 0.00941858688396737], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05322707366480275], ["'mixed heating grid' (megajoule, DK, None)", -0.0021849812542562583], ["'transport' (ton kilometer, GLO, None)", 0.000145710694906627], ["'eol SUD' (kilogram, GLO, None)", 0.0004144967204175174], ["'surgery use' (unit, DK, None)", 0.0044941105980370625], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.9491222842091897e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.051026704226868114], ["'packgaging materials' (kilogram, GLO, None)", 3.9714569108510815e-06], ["'MUD raw materials' (unit, GLO, None)", 5.1556615076763914e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03090393654928342], ["'H200 SU' (unit, GLO, None)", 0.00010629523524772311], ["'autoclave' (unit, DK, None)", 0.01284778305864588], ["'transport' (ton kilometer, GLO, None)", 5.960176655489645e-05], ["'mixed heating grid' (megajoule, DK, None)", -9.041431786457752e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022025314103135078], ["'eol MUD' (kilogram, GLO, None)", 1.3631973190638889e-05], ["'scalpel' (unit, GLO, None)", 0.0007996895080461902], ["'surgery use' (unit, DK, None)", 0.0044941105980370625]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.014825974269812293], ["'SUD manufacturing' (unit, GLO, None)", 0.05491246587700339], ["'SUD raw materials' (unit, GLO, None)", 0.0029127059069302204], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0365787099591197], ["'mixed heating grid' (megajoule, DK, None)", -0.05794946316757889], ["'transport' (ton kilometer, GLO, None)", 0.0003420243430378028], ["'eol SUD' (kilogram, GLO, None)", 0.00017033279706152196], ["'surgery use' (unit, DK, None)", 0.0031127256155559137], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.4404057596132215e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03440791972570543], ["'packgaging materials' (kilogram, GLO, None)", 1.1063573606531211e-05], ["'MUD raw materials' (unit, GLO, None)", 4.302014139301727e-05], ["'mechanical disinfection' (unit, DK, None)", 0.02077665289084438], ["'H200 SU' (unit, GLO, None)", -0.009689646241683744], ["'autoclave' (unit, DK, None)", 0.008666377647367657], ["'transport' (ton kilometer, GLO, None)", 0.00013990225674851144], ["'mixed heating grid' (megajoule, DK, None)", -0.00239794331082193], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0015136236521487386], ["'eol MUD' (kilogram, GLO, None)", 4.594160226853385e-06], ["'scalpel' (unit, GLO, None)", 0.0004297653930553447], ["'surgery use' (unit, DK, None)", 0.0031127256155559137]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.013564475231859387], ["'SUD manufacturing' (unit, GLO, None)", 0.06851265250929148], ["'SUD raw materials' (unit, GLO, None)", 0.009177714657397126], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0017631167705495757], ["'mixed heating grid' (megajoule, DK, None)", -0.0005167273677332672], ["'transport' (ton kilometer, GLO, None)", 0.00018185415116594091], ["'eol SUD' (kilogram, GLO, None)", 0.0005302953578130011], ["'surgery use' (unit, DK, None)", 0.00022828671958396575], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.374625837039948e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003585839327346763], ["'packgaging materials' (kilogram, GLO, None)", 1.0122206300277482e-05], ["'MUD raw materials' (unit, GLO, None)", 9.83505700265904e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0017888141054492913], ["'H200 SU' (unit, GLO, None)", 0.0004678323559534088], ["'autoclave' (unit, DK, None)", 0.001003621967772545], ["'transport' (ton kilometer, GLO, None)", 7.438595136600578e-05], ["'mixed heating grid' (megajoule, DK, None)", -2.1382129656514986e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.295760972397515e-05], ["'eol MUD' (kilogram, GLO, None)", 1.7015337422973137e-05], ["'scalpel' (unit, GLO, None)", 0.0012429639082957558], ["'surgery use' (unit, DK, None)", 0.00022828671958396575]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 2.2078394868111935e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.740746330471341e-07], ["'SUD raw materials' (unit, GLO, None)", 8.146910465792237e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.758335118186399e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.2866732745117611e-07], ["'transport' (ton kilometer, GLO, None)", 4.101865239130528e-09], ["'eol SUD' (kilogram, GLO, None)", 8.578463173140732e-08], ["'surgery use' (unit, DK, None)", 1.5173275704899318e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -7.216798932934385e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.9558971242459023e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.64755409858478e-11], ["'MUD raw materials' (unit, GLO, None)", 2.4908635697257807e-09], ["'mechanical disinfection' (unit, DK, None)", 1.1370993172677787e-07], ["'H200 SU' (unit, GLO, None)", -1.2628385652242174e-08], ["'autoclave' (unit, DK, None)", 5.188518647651879e-08], ["'transport' (ton kilometer, GLO, None)", 1.6778343866863489e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.32424185346898e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 7.275974538919282e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1264245430706815e-09], ["'scalpel' (unit, GLO, None)", 3.5188904032600695e-09], ["'surgery use' (unit, DK, None)", 1.5173275704899318e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 9.873900992045926e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005099328677918071], ["'SUD raw materials' (unit, GLO, None)", 0.0007630774463188088], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014293222493738002], ["'mixed heating grid' (megajoule, DK, None)", -0.00012611654754227954], ["'transport' (ton kilometer, GLO, None)", 6.397550986848893e-06], ["'eol SUD' (kilogram, GLO, None)", 1.9735446989168484e-05], ["'surgery use' (unit, DK, None)", 1.7568576862676325e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.4424672277213788e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00023071940320667285], ["'packgaging materials' (kilogram, GLO, None)", 7.368192364364916e-08], ["'MUD raw materials' (unit, GLO, None)", 2.1465065444793806e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0001249295870227735], ["'H200 SU' (unit, GLO, None)", 5.2100932196681656e-05], ["'autoclave' (unit, DK, None)", 5.696629507137574e-05], ["'transport' (ton kilometer, GLO, None)", 2.616865842864587e-06], ["'mixed heating grid' (megajoule, DK, None)", -5.218690821835962e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.914522315337244e-06], ["'eol MUD' (kilogram, GLO, None)", 6.128113400663632e-07], ["'scalpel' (unit, GLO, None)", 4.224294786735442e-05], ["'surgery use' (unit, DK, None)", 1.7568576862676325e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00018987598446242005], ["'SUD manufacturing' (unit, GLO, None)", 0.0034842903551461635], ["'SUD raw materials' (unit, GLO, None)", 0.0004023391399685072], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003439629986364003], ["'mixed heating grid' (megajoule, DK, None)", -0.0002309835958059227], ["'transport' (ton kilometer, GLO, None)", 1.4276196158513136e-05], ["'eol SUD' (kilogram, GLO, None)", 9.554151912699698e-05], ["'surgery use' (unit, DK, None)", 3.243214837968538e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.8995979721938656e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00038938964949390806], ["'packgaging materials' (kilogram, GLO, None)", 1.416909871811856e-07], ["'MUD raw materials' (unit, GLO, None)", 4.589231037298453e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00022668566226703287], ["'H200 SU' (unit, GLO, None)", 0.00010152111795121395], ["'autoclave' (unit, DK, None)", 9.860417250434845e-05], ["'transport' (ton kilometer, GLO, None)", 5.839561133634471e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.558079371169953e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.423315723222376e-05], ["'eol MUD' (kilogram, GLO, None)", 2.901754063853584e-06], ["'scalpel' (unit, GLO, None)", 3.2616001163072806e-05], ["'surgery use' (unit, DK, None)", 3.243214837968538e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00020531436613741675], ["'SUD manufacturing' (unit, GLO, None)", 0.0035723820828105174], ["'SUD raw materials' (unit, GLO, None)", 0.0004310165202858939], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035171571298809657], ["'mixed heating grid' (megajoule, DK, None)", -0.00023820097538375208], ["'transport' (ton kilometer, GLO, None)", 1.616070377784424e-05], ["'eol SUD' (kilogram, GLO, None)", 9.703561244906196e-05], ["'surgery use' (unit, DK, None)", 3.3212194710988516e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.9709851714111663e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00039906016580059327], ["'packgaging materials' (kilogram, GLO, None)", 1.5321155702156553e-07], ["'MUD raw materials' (unit, GLO, None)", 4.701156854478506e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0002322707730506856], ["'H200 SU' (unit, GLO, None)", 0.00010872066829148627], ["'autoclave' (unit, DK, None)", 0.00010107474672685167], ["'transport' (ton kilometer, GLO, None)", 6.610403543453957e-06], ["'mixed heating grid' (megajoule, DK, None)", -9.856733856204102e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4553963838694986e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9495755741993596e-06], ["'scalpel' (unit, GLO, None)", 3.406489094102742e-05], ["'surgery use' (unit, DK, None)", 3.3212194710988516e-05]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.00135071008950548], ["'SUD manufacturing' (unit, GLO, None)", 0.010657660738083503], ["'SUD raw materials' (unit, GLO, None)", 0.00427736017490582], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0029393418949965606], ["'mixed heating grid' (megajoule, DK, None)", -0.00091298193532072], ["'transport' (ton kilometer, GLO, None)", 1.4551059872428038e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00041960728967402675], ["'surgery use' (unit, DK, None)", 0.0002611502836789233], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.213211307791363e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003187288207323631], ["'packgaging materials' (kilogram, GLO, None)", 1.007939189990071e-06], ["'MUD raw materials' (unit, GLO, None)", 6.794295877662559e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0018344234242345452], ["'H200 SU' (unit, GLO, None)", 0.0002563786371456332], ["'autoclave' (unit, DK, None)", 0.0008555599309013525], ["'transport' (ton kilometer, GLO, None)", 5.951991885005645e-06], ["'mixed heating grid' (megajoule, DK, None)", -3.777910622523973e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00012162969713778169], ["'eol MUD' (kilogram, GLO, None)", 1.2150595047614644e-05], ["'scalpel' (unit, GLO, None)", 9.636116587863271e-05], ["'surgery use' (unit, DK, None)", 0.0002611502836789233]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 4.2695174637138576e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.728937512952595e-09], ["'SUD raw materials' (unit, GLO, None)", 1.1159307206478714e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.057210508869361e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.7213138307041e-10], ["'transport' (ton kilometer, GLO, None)", 3.5518878104994186e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2508206460430734e-09], ["'surgery use' (unit, DK, None)", 1.000313282648596e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.3307202432431476e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.1887121533777312e-09], ["'packgaging materials' (kilogram, GLO, None)", 3.186038223494553e-13], ["'MUD raw materials' (unit, GLO, None)", 5.985201980284616e-12], ["'mechanical disinfection' (unit, DK, None)", 6.930425623458109e-10], ["'H200 SU' (unit, GLO, None)", 2.3295976952209407e-10], ["'autoclave' (unit, DK, None)", 2.994282807204936e-10], ["'transport' (ton kilometer, GLO, None)", 1.4528706231634372e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.195072368065098e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.374727357288626e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2331882017585264e-11], ["'scalpel' (unit, GLO, None)", 6.786924225166856e-11], ["'surgery use' (unit, DK, None)", 1.000313282648596e-10]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 1.561745247870634e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.991574870853061e-06], ["'SUD raw materials' (unit, GLO, None)", 8.020479442162039e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.62799545871427e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.6228196959723678e-07], ["'transport' (ton kilometer, GLO, None)", 1.554059641358566e-08], ["'eol SUD' (kilogram, GLO, None)", 5.517740756502636e-07], ["'surgery use' (unit, DK, None)", 4.01441137357887e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0153885928705125e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.094927251945848e-07], ["'packgaging materials' (kilogram, GLO, None)", 1.1654197687128355e-10], ["'MUD raw materials' (unit, GLO, None)", 6.465426484554398e-09], ["'mechanical disinfection' (unit, DK, None)", 2.841187340081931e-07], ["'H200 SU' (unit, GLO, None)", 1.3831045690795962e-07], ["'autoclave' (unit, DK, None)", 1.25914107318144e-07], ["'transport' (ton kilometer, GLO, None)", 6.356753704043089e-09], ["'mixed heating grid' (megajoule, DK, None)", -6.715212569569003e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5012611823476913e-08], ["'eol MUD' (kilogram, GLO, None)", 1.654591845010795e-08], ["'scalpel' (unit, GLO, None)", 1.007069809362462e-07], ["'surgery use' (unit, DK, None)", 4.01441137357887e-08]]</t>
+  </si>
+  <si>
+    <t>[["'packgaging materials' (kilogram, GLO, None)", 0.01801833984055243], ["'SUD manufacturing' (unit, GLO, None)", 0.06463772705952882], ["'SUD raw materials' (unit, GLO, None)", 0.026339379746502054], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008678826897690929], ["'mixed heating grid' (megajoule, DK, None)", -0.005015524468110677], ["'transport' (ton kilometer, GLO, None)", 0.0012482163345126193], ["'eol SUD' (kilogram, GLO, None)", 0.0012377857473322431], ["'surgery use' (unit, DK, None)", 0.0007925119103643386], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0865267214534445e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009766875749068102], ["'packgaging materials' (kilogram, GLO, None)", 1.3445809729978004e-05], ["'MUD raw materials' (unit, GLO, None)", 8.635492537871419e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005681890207099548], ["'H200 SU' (unit, GLO, None)", 0.013148433776073264], ["'autoclave' (unit, DK, None)", 0.0025197622071613138], ["'transport' (ton kilometer, GLO, None)", 0.0005105726702305783], ["'mixed heating grid' (megajoule, DK, None)", -0.00020754192862477552], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00035912905840394463], ["'eol MUD' (kilogram, GLO, None)", 4.0804302523614914e-05], ["'scalpel' (unit, GLO, None)", 0.0009732159051051726], ["'surgery use' (unit, DK, None)", 0.0007925119103643386]]</t>
   </si>
 </sst>
 </file>
